--- a/public/DataUser/User-data.xlsx
+++ b/public/DataUser/User-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYEK PENELITIAN SPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980D31F9-9C83-4E15-81DC-D08058586116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABB7FE-F7F7-4AC3-970F-E8BB800D8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8754B1D4-CD9C-4CF9-9ACD-A07A1A87C4B1}"/>
   </bookViews>
@@ -48,16 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Pijay</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>pijaybizher@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -69,16 +60,36 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>ber@gmail.com</t>
+  </si>
+  <si>
+    <t>0811234567</t>
+  </si>
+  <si>
+    <t>Scheber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,19 +112,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -151,10 +168,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9737A402-5D1D-4C62-BEAE-D366574EDCBC}" name="Table_User" displayName="Table_User" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{9737A402-5D1D-4C62-BEAE-D366574EDCBC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0D690295-2223-42BD-8933-C35ADC15A4BD}" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{FC81DD22-ED90-478B-9039-FBC662CF4300}" uniqueName="2" name="akses" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9DF62B97-1AD3-4C50-936B-DFF7787A27D6}" uniqueName="3" name="nohp" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{996BF4C0-570B-4426-8D3F-7D21D1D0A78E}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0D690295-2223-42BD-8933-C35ADC15A4BD}" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FC81DD22-ED90-478B-9039-FBC662CF4300}" uniqueName="2" name="akses" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9DF62B97-1AD3-4C50-936B-DFF7787A27D6}" uniqueName="3" name="nohp" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{996BF4C0-570B-4426-8D3F-7D21D1D0A78E}" uniqueName="4" name="email" queryTableFieldId="4" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,47 +477,52 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>819947200</v>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{CBC811C7-2957-4965-B901-8335028142E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
